--- a/BalloonData_3obj.xlsx
+++ b/BalloonData_3obj.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuliannaEvans\Documents\MATLAB\balloonGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB36E6E-139D-41B9-B0A3-29BFBCABB392}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{627269EB-9E18-49C9-90AF-6B1C1AADBF09}"/>
   </bookViews>
@@ -53,13 +54,13 @@
     <t>balloonC</t>
   </si>
   <si>
-    <t>27 Feb 2018 17:00:00.000'</t>
-  </si>
-  <si>
-    <t>27 Feb 2018 18:00:00.000'</t>
-  </si>
-  <si>
-    <t>27 Feb 2018 19:00:00.000'</t>
+    <t>18 Mar 2018 17:00:00.000'</t>
+  </si>
+  <si>
+    <t>18 Mar 2018 18:00:00.000'</t>
+  </si>
+  <si>
+    <t>18 Mar 2018 19:00:00.000'</t>
   </si>
 </sst>
 </file>
@@ -415,7 +416,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BalloonData_3obj.xlsx
+++ b/BalloonData_3obj.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuliannaEvans\Documents\MATLAB\balloonGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296059BD-EBBF-4A8B-907C-879E40704EE2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{627269EB-9E18-49C9-90AF-6B1C1AADBF09}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{627269EB-9E18-49C9-90AF-6B1C1AADBF09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,13 +54,13 @@
     <t>balloonC</t>
   </si>
   <si>
-    <t>27 Feb 2018 17:00:00.000'</t>
-  </si>
-  <si>
-    <t>27 Feb 2018 18:00:00.000'</t>
-  </si>
-  <si>
-    <t>27 Feb 2018 19:00:00.000'</t>
+    <t>11 Apr 2018 16:00:00.000'</t>
+  </si>
+  <si>
+    <t>11 Apr 2018 18:00:00.000'</t>
+  </si>
+  <si>
+    <t>11 Apr 2018 19:00:00.000'</t>
   </si>
 </sst>
 </file>
@@ -415,7 +416,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,10 +453,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>-80</v>
+        <v>-104</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -472,10 +473,10 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>33.5</v>
       </c>
       <c r="D3">
-        <v>-85</v>
+        <v>-104.5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -492,10 +493,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>-82</v>
+        <v>-103</v>
       </c>
       <c r="E4">
         <v>0</v>
